--- a/Λειτουργικές απαιτήσεις και Ρόλοι musiCity-ομάδα9-2020.xlsx
+++ b/Λειτουργικές απαιτήσεις και Ρόλοι musiCity-ομάδα9-2020.xlsx
@@ -4,21 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scrum team - Ρόλοι" sheetId="1" r:id="rId1"/>
     <sheet name=" Product Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="1st Sprint" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="2nd Sprint" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="3rd Sprint" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="2nd Sprint" sheetId="5" r:id="rId5"/>
+    <sheet name="3rd Sprint" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">' Product Backlog'!$A$10:$C$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1st Sprint'!$A$13:$R$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2nd Sprint'!$A$13:$K$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3rd Sprint'!$A$13:$K$13</definedName>
     <definedName name="Z_5B53AEE6_6D29_4F77_8B8E_21430AC969FD_.wvu.FilterData" localSheetId="1">' Product Backlog'!$A$9:$C$9</definedName>
     <definedName name="Z_5B53AEE6_6D29_4F77_8B8E_21430AC969FD_.wvu.FilterData" localSheetId="2">'1st Sprint'!$A$12:$D$12</definedName>
     <definedName name="Z_5B53AEE6_6D29_4F77_8B8E_21430AC969FD_.wvu.FilterData" localSheetId="4">'2nd Sprint'!$A$12:$D$12</definedName>
@@ -35,13 +32,12 @@
     <definedName name="Z_AF9CDD9E_3CB3_EE48_8887_F1090B6AE042_.wvu.FilterData" localSheetId="5">'3rd Sprint'!$A$12:$D$12</definedName>
     <definedName name="Z_AF9CDD9E_3CB3_EE48_8887_F1090B6AE042_.wvu.FilterData" localSheetId="0">'Scrum team - Ρόλοι'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -178,18 +174,6 @@
     <t>Remaining units (actual)</t>
   </si>
   <si>
-    <t>Remaining units (ideal)</t>
-  </si>
-  <si>
-    <t>Velocity_gap</t>
-  </si>
-  <si>
-    <t>Υλοποίηση……</t>
-  </si>
-  <si>
-    <t>Έλεγχος - Eπαλήθευση λειτουργικών απαιτήσεων</t>
-  </si>
-  <si>
     <t>Τελική αποσφαλμάτωση κώδικα</t>
   </si>
   <si>
@@ -202,9 +186,6 @@
     <t>Το σύστημα θα προσφέρει την δυνατότητα εύρεσης καλλιτεχνικού event σe κάποια πόλη(Θα προτείνεται η Θεσσαλονίκη και θα υπάρχει δυνατότητα επιλόγής άλλης πόλης)</t>
   </si>
   <si>
-    <t xml:space="preserve">Προβολή  Καλλιτεχνικών event </t>
-  </si>
-  <si>
     <t>Αποθήκευση ενδιαφέροντος για Συναυλία(Favorite)</t>
   </si>
   <si>
@@ -263,18 +244,59 @@
   </si>
   <si>
     <t>W3.1-Πραγματοποίηση κλήσεων προς το API</t>
+  </si>
+  <si>
+    <t>W2.2-Δημιουργία της Βάσης Δεδομένων</t>
+  </si>
+  <si>
+    <t>W6.1-Δημιουργία λειτουργίας επανέκδοσης κωδικού</t>
+  </si>
+  <si>
+    <t>W7.1-Δημιουργία λειτουργίας σύνδεσης χρήστη</t>
+  </si>
+  <si>
+    <t>W5.1-Register-Δημιουργία φόρμας συμπλήρωσης για εγγραφή χρήστη (email, password,confirm password)</t>
+  </si>
+  <si>
+    <t>Προβολή Καλλιτεχνικών event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Κλήση προς ΑΡΙ  Καλλιτεχνικών event </t>
+  </si>
+  <si>
+    <t>WP9</t>
+  </si>
+  <si>
+    <t>Το σύστημα παραγματοποιεί κλήσεις προς καλλιτεχνικό ΑΡΙ εμφανίζονατς μουσικά γεγονότα μιας πόλης</t>
+  </si>
+  <si>
+    <t>W8.1-Προβολή καλλιτεχνικών Event</t>
+  </si>
+  <si>
+    <t>W9.1-Αποθήκευση ενδιαφέροντος για συναυλία συνδεδεμένου χρήστη</t>
+  </si>
+  <si>
+    <t>W4.1-Έυρεση εθελοντών για τη δοκιμή λειτουργίας της εφαρμογής</t>
+  </si>
+  <si>
+    <t>W4.3-Πραγματοποίηση των τέστ-Καταγραφή και αναφορά αποτελεσμάτων</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>W4.2-Δημιουργία ερωτηματολογίου για χρήση μετά τη δοκιμή της λειτουργίας της εφαρμογής</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="ddd\ dd/mm"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;- &quot;_€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* \-?\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -547,12 +569,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor rgb="FF000080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -563,8 +579,14 @@
         <bgColor rgb="FF44546A"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1051,34 +1073,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="mediumDashDotDot">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashDotDot">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -1108,34 +1102,6 @@
         <color auto="1"/>
       </top>
       <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="mediumDashDotDot">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashDotDot">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1183,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1260,12 +1226,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,58 +1324,15 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1423,58 +1340,25 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="16" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="8" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="16" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="8" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1500,7 +1384,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,10 +1399,10 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,36 +1413,11 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1578,74 +1437,107 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,22 +1546,7 @@
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
     <cellStyle name="Κανονικό 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -2058,7 +1935,7 @@
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2071,66 +1948,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="131"/>
+      <c r="B3" s="98"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="132" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="133" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="A4" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="99"/>
+      <c r="C4" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127" t="str">
+      <c r="B5" s="93"/>
+      <c r="C5" s="94" t="str">
         <f>' Product Backlog'!C5</f>
         <v>Ιγνάτιος Δεληγιάννης,Στέφανος Ουγιάρογλου, Μιχαήλ Σαλαμπάσης,Αντώνης Σιδηρόπουλος</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="127" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="129" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2155,8 +2032,8 @@
       <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="125" t="s">
-        <v>55</v>
+      <c r="D10" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -2170,8 +2047,8 @@
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="125" t="s">
-        <v>55</v>
+      <c r="D11" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -2185,8 +2062,8 @@
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="125" t="s">
-        <v>55</v>
+      <c r="D12" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="15"/>
     </row>
@@ -2200,8 +2077,8 @@
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="125" t="s">
-        <v>55</v>
+      <c r="D13" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -2209,8 +2086,8 @@
       <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="125" t="s">
-        <v>55</v>
+      <c r="B14" s="92" t="s">
+        <v>50</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -2242,12 +2119,12 @@
   <sheetPr>
     <tabColor rgb="FF181717"/>
   </sheetPr>
-  <dimension ref="A2:AMJ20"/>
+  <dimension ref="A2:AMJ21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2259,51 +2136,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="135"/>
+      <c r="B3" s="102"/>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="136"/>
+      <c r="A4" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="103"/>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="18" t="str">
         <f>'1st Sprint'!C3:K3</f>
         <v>Ιγνάτιος Δεληγιάννης,Στέφανος Ουγιάρογλου, Μιχαήλ Σαλαμπάσης,Αντώνης Σιδηρόπουλος</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="137"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="134"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="19" t="str">
         <f>'Scrum team - Ρόλοι'!C7:F7</f>
         <v>Ηλιάδης Αλέξιος,Κόκκινου Ξανθή,Μήσιος Δημήτριος,Ταουκτσής Βασίλης</v>
@@ -2327,105 +2204,116 @@
       <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="114"/>
+      <c r="B11" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="115"/>
     </row>
     <row r="12" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="114"/>
+      <c r="B16" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="115"/>
+    </row>
+    <row r="17" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="B18" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="B19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>56</v>
+      <c r="B20" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2438,11 +2326,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <pageMargins left="0.43333333333333302" right="0.31527777777777799" top="0.74791666666666701" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup scale="47" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="120" firstPageNumber="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;12ΠΛΗ 24_ 3η εργασία "Διαχείριση Λιστών Αγαπημένων Ταινιών"
-ΗΛΕ- 2, Ομάδα 2</oddFooter>
+    <oddFooter>Σελίδα &amp;P&amp;R&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2452,623 +2340,616 @@
   <sheetPr>
     <tabColor rgb="FF70AD47"/>
   </sheetPr>
-  <dimension ref="A1:AMJ22"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="34" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="34" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="34" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="34" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="34" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="34" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="34" customWidth="1"/>
-    <col min="19" max="1024" width="11.42578125" style="35"/>
+    <col min="1" max="1" width="12.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="32" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="32" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="32" customWidth="1"/>
+    <col min="19" max="1024" width="11.42578125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="98"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
+      <c r="A2" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="112"/>
+      <c r="C3" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="144" t="s">
+      <c r="B4" s="104"/>
+      <c r="C4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="145" t="str">
+      <c r="B5" s="101"/>
+      <c r="C5" s="108" t="str">
         <f>'Scrum team - Ρόλοι'!C7:F7</f>
         <v>Ηλιάδης Αλέξιος,Κόκκινου Ξανθή,Μήσιος Δημήτριος,Ταουκτσής Βασίλης</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39">
+      <c r="C7" s="36"/>
+      <c r="D7" s="37">
         <v>1</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="J7" s="34"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42">
+      <c r="C8" s="39"/>
+      <c r="D8" s="40">
         <v>44145</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="142" t="s">
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="143" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="48">
+      <c r="C11" s="106"/>
+      <c r="D11" s="46">
         <v>0</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <v>1</v>
       </c>
-      <c r="F11" s="50">
-        <v>2</v>
-      </c>
-      <c r="G11" s="50">
+      <c r="F11" s="48">
+        <v>2</v>
+      </c>
+      <c r="G11" s="48">
         <v>3</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="48">
         <v>4</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="48">
         <v>5</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="48">
         <v>6</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="48">
         <v>7</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="47">
         <v>8</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="48">
         <v>9</v>
       </c>
-      <c r="N11" s="50">
+      <c r="N11" s="48">
         <v>10</v>
       </c>
-      <c r="O11" s="50">
+      <c r="O11" s="48">
         <v>11</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="48">
         <v>12</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="48">
         <v>13</v>
       </c>
-      <c r="R11" s="51">
+      <c r="R11" s="49">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="59" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:18" s="57" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="54">
         <f>D8</f>
         <v>44145</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="55">
         <f t="shared" ref="F12:R12" si="0">E12+1</f>
         <v>44146</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="55">
         <f t="shared" si="0"/>
         <v>44147</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="55">
         <f t="shared" si="0"/>
         <v>44148</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="55">
         <f t="shared" si="0"/>
         <v>44149</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="55">
         <f t="shared" si="0"/>
         <v>44150</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="55">
         <f t="shared" si="0"/>
         <v>44151</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="54">
         <f t="shared" si="0"/>
         <v>44152</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="55">
         <f t="shared" si="0"/>
         <v>44153</v>
       </c>
-      <c r="N12" s="57">
+      <c r="N12" s="55">
         <f t="shared" si="0"/>
         <v>44154</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="55">
         <f t="shared" si="0"/>
         <v>44155</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="55">
         <f t="shared" si="0"/>
         <v>44156</v>
       </c>
-      <c r="Q12" s="57">
+      <c r="Q12" s="55">
         <f t="shared" si="0"/>
         <v>44157</v>
       </c>
-      <c r="R12" s="58">
+      <c r="R12" s="56">
         <f t="shared" si="0"/>
         <v>44158</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="59" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="68"/>
-    </row>
-    <row r="14" spans="1:18" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="69">
+    <row r="13" spans="1:18" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="116">
         <v>1</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B13" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="71">
-        <v>2</v>
-      </c>
-      <c r="D14" s="72">
+      <c r="C13" s="118">
+        <v>2</v>
+      </c>
+      <c r="D13" s="119">
+        <v>4</v>
+      </c>
+      <c r="E13" s="59">
+        <v>2</v>
+      </c>
+      <c r="F13" s="59">
+        <v>2</v>
+      </c>
+      <c r="G13" s="59">
+        <v>1</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:18" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="116">
+        <v>2</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="118">
+        <v>2</v>
+      </c>
+      <c r="D14" s="119">
+        <v>3</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63">
+        <v>2</v>
+      </c>
+      <c r="I14" s="63">
+        <v>1</v>
+      </c>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="1:18" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="116">
+        <v>3</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="118">
+        <v>3</v>
+      </c>
+      <c r="D15" s="119">
         <v>8</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63">
+        <v>2</v>
+      </c>
+      <c r="K15" s="64">
+        <v>2</v>
+      </c>
+      <c r="L15" s="62">
+        <v>2</v>
+      </c>
+      <c r="M15" s="63">
+        <v>2</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="1:18" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="116">
         <v>4</v>
       </c>
-      <c r="F14" s="74">
+      <c r="B16" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="118">
         <v>3</v>
       </c>
-      <c r="G14" s="74">
+      <c r="D16" s="119">
+        <v>4</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63">
+        <v>2</v>
+      </c>
+      <c r="K16" s="64">
+        <v>2</v>
+      </c>
+      <c r="L16" s="62">
+        <v>1</v>
+      </c>
+      <c r="M16" s="63">
+        <v>1</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="1:18" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="116">
+        <v>5</v>
+      </c>
+      <c r="B17" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="118">
+        <v>4</v>
+      </c>
+      <c r="D17" s="119">
+        <v>9</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63">
+        <v>2</v>
+      </c>
+      <c r="K17" s="64">
+        <v>2</v>
+      </c>
+      <c r="L17" s="62">
+        <v>2</v>
+      </c>
+      <c r="M17" s="63">
+        <v>2</v>
+      </c>
+      <c r="N17" s="63">
+        <v>2</v>
+      </c>
+      <c r="O17" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
+    </row>
+    <row r="18" spans="1:18" s="61" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="116">
+        <v>9</v>
+      </c>
+      <c r="B18" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="118">
         <v>3</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
-    </row>
-    <row r="15" spans="1:18" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69">
-        <v>2</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="78">
-        <v>2</v>
-      </c>
-      <c r="D15" s="79">
-        <v>6</v>
-      </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81">
-        <v>3</v>
-      </c>
-      <c r="I15" s="81">
-        <v>3</v>
-      </c>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82"/>
-    </row>
-    <row r="16" spans="1:18" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69">
-        <v>3</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="78">
-        <v>3</v>
-      </c>
-      <c r="D16" s="79">
-        <v>12</v>
-      </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81">
-        <v>3</v>
-      </c>
-      <c r="K16" s="82">
-        <v>3</v>
-      </c>
-      <c r="L16" s="80">
-        <v>3</v>
-      </c>
-      <c r="M16" s="81">
-        <v>3</v>
-      </c>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82"/>
-    </row>
-    <row r="17" spans="1:18" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69">
-        <v>4</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="78">
-        <v>3</v>
-      </c>
-      <c r="D17" s="79">
-        <v>9</v>
-      </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81">
-        <v>3</v>
-      </c>
-      <c r="K17" s="82">
-        <v>3</v>
-      </c>
-      <c r="L17" s="80">
-        <v>2</v>
-      </c>
-      <c r="M17" s="81">
-        <v>2</v>
-      </c>
-      <c r="N17" s="81">
-        <v>2</v>
-      </c>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-    </row>
-    <row r="18" spans="1:18" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="69">
+      <c r="D18" s="119">
         <v>5</v>
       </c>
-      <c r="B18" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="78">
-        <v>4</v>
-      </c>
-      <c r="D18" s="79">
-        <v>12</v>
-      </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81">
-        <v>3</v>
-      </c>
-      <c r="K18" s="82"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81">
-        <v>3</v>
-      </c>
-      <c r="N18" s="81">
-        <v>2</v>
-      </c>
-      <c r="O18" s="81">
-        <v>3</v>
-      </c>
-      <c r="P18" s="81">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-    </row>
-    <row r="19" spans="1:18" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="69">
-        <v>9</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="78">
-        <v>2</v>
-      </c>
-      <c r="D19" s="79">
-        <v>10</v>
-      </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="81">
-        <v>2</v>
-      </c>
-      <c r="R19" s="82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63">
+        <v>1</v>
+      </c>
+      <c r="P18" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="63">
+        <v>2</v>
+      </c>
+      <c r="R18" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="84">
-        <f>SUM('1st Sprint'!$D$14:$D$19)+SUM('2nd Sprint'!$D$14:$D$19)+SUM('3rd Sprint'!$D$14:$D$18)</f>
-        <v>57</v>
-      </c>
-      <c r="C20" s="85" t="s">
+      <c r="B19" s="122">
+        <f>SUM('1st Sprint'!$D$13:$D$18)+SUM('2nd Sprint'!$D$13:$D$19)+SUM('3rd Sprint'!$D$13:$D$18)</f>
+        <v>85</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="86">
-        <f>SUM($D$14:$D$19)</f>
-        <v>57</v>
-      </c>
-      <c r="E20" s="87">
-        <f t="shared" ref="E20:R20" si="1">D20-SUM(E14:E19)</f>
-        <v>53</v>
-      </c>
-      <c r="F20" s="88">
+      <c r="D19" s="123">
+        <f>SUM($D$13:$D$18)</f>
+        <v>33</v>
+      </c>
+      <c r="E19" s="66">
+        <f t="shared" ref="E19:P19" si="1">D19-SUM(E13:E18)</f>
+        <v>31</v>
+      </c>
+      <c r="F19" s="66">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G20" s="88">
+        <v>29</v>
+      </c>
+      <c r="G19" s="66">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="H20" s="88">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="I20" s="88">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J20" s="88">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="K20" s="89">
+        <v>28</v>
+      </c>
+      <c r="H19" s="66">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="L20" s="87">
+      <c r="I19" s="66">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="M20" s="88">
+        <v>25</v>
+      </c>
+      <c r="J19" s="66">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K19" s="67">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="N20" s="88">
+      <c r="L19" s="65">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O20" s="88">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="P20" s="88">
+        <v>8</v>
+      </c>
+      <c r="M19" s="66">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q20" s="88">
-        <f>P20-SUM(Q14:Q19)</f>
+      <c r="N19" s="66">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R20" s="89">
-        <f>Q20-SUM(R14:R19)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="34"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
+      <c r="O19" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="66">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="Q19" s="66">
+        <f>P19-SUM(Q13:Q18)</f>
+        <v>-4</v>
+      </c>
+      <c r="R19" s="67">
+        <f>Q19-SUM(R13:R18)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="120"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="32"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="72"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E23" s="124"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:R13"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
     <mergeCell ref="L10:R10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A4:B4"/>
@@ -3076,13 +2957,8 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E14:R19">
+  <conditionalFormatting sqref="E13:R18">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3092,9 +2968,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:R20">
-    <cfRule type="expression" dxfId="5" priority="15">
-      <formula>E20&gt;#REF!</formula>
+  <conditionalFormatting sqref="E19:R19">
+    <cfRule type="expression" dxfId="2" priority="15">
+      <formula>E19&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -3127,517 +3003,609 @@
   </sheetPr>
   <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D25" sqref="D24:D25"/>
+    <sheetView topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="51" style="32" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="34" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" style="34"/>
-    <col min="12" max="1024" width="11.42578125" style="31"/>
+    <col min="1" max="1" width="12.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="51" style="30" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="32" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" style="32"/>
+    <col min="12" max="1024" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="98"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="139" t="str">
+      <c r="A2" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111" t="str">
         <f>' Product Backlog'!C4</f>
         <v>musiCity</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141" t="str">
+      <c r="B3" s="112"/>
+      <c r="C3" s="113" t="str">
         <f>' Product Backlog'!C5</f>
         <v>Ιγνάτιος Δεληγιάννης,Στέφανος Ουγιάρογλου, Μιχαήλ Σαλαμπάσης,Αντώνης Σιδηρόπουλος</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="144" t="str">
+      <c r="B4" s="104"/>
+      <c r="C4" s="107" t="str">
         <f>'1st Sprint'!C4:K4</f>
         <v>Κόκκινου Ξανθή</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="145" t="str">
+      <c r="B5" s="101"/>
+      <c r="C5" s="108" t="str">
         <f>'3rd Sprint'!C5:K5</f>
         <v>Ηλιάδης Αλέξιος,Κόκκινου Ξανθή,Μήσιος Δημήτριος,Ταουκτσής Βασίλης</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-    </row>
-    <row r="6" spans="1:18" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:18" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98"/>
-      <c r="B7" s="38" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+    </row>
+    <row r="6" spans="1:18" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="39">
-        <v>2</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:18" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="37">
+        <v>2</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:18" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="42">
+      <c r="C8" s="77"/>
+      <c r="D8" s="40">
         <f>'1st Sprint'!R12+1</f>
         <v>44159</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="146" t="s">
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="103"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="78"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="48">
+      <c r="C11" s="106"/>
+      <c r="D11" s="46">
         <v>0</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="79">
         <v>1</v>
       </c>
-      <c r="F11" s="105">
-        <v>2</v>
-      </c>
-      <c r="G11" s="105">
+      <c r="F11" s="80">
+        <v>2</v>
+      </c>
+      <c r="G11" s="80">
         <v>3</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="80">
         <v>4</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="80">
         <v>5</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="80">
         <v>6</v>
       </c>
-      <c r="K11" s="106">
+      <c r="K11" s="81">
         <v>7</v>
       </c>
-      <c r="L11" s="104">
+      <c r="L11" s="79">
         <v>1</v>
       </c>
-      <c r="M11" s="105">
-        <v>2</v>
-      </c>
-      <c r="N11" s="105">
+      <c r="M11" s="80">
+        <v>2</v>
+      </c>
+      <c r="N11" s="80">
         <v>3</v>
       </c>
-      <c r="O11" s="105">
+      <c r="O11" s="80">
         <v>4</v>
       </c>
-      <c r="P11" s="105">
+      <c r="P11" s="80">
         <v>5</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="80">
         <v>6</v>
       </c>
-      <c r="R11" s="106">
+      <c r="R11" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:18" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="82">
         <f>D8</f>
         <v>44159</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="83">
         <f t="shared" ref="F12:R12" si="0">E12+1</f>
         <v>44160</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="83">
         <f t="shared" si="0"/>
         <v>44161</v>
       </c>
-      <c r="H12" s="108">
+      <c r="H12" s="83">
         <f t="shared" si="0"/>
         <v>44162</v>
       </c>
-      <c r="I12" s="108">
+      <c r="I12" s="83">
         <f t="shared" si="0"/>
         <v>44163</v>
       </c>
-      <c r="J12" s="108">
+      <c r="J12" s="83">
         <f t="shared" si="0"/>
         <v>44164</v>
       </c>
-      <c r="K12" s="109">
+      <c r="K12" s="84">
         <f t="shared" si="0"/>
         <v>44165</v>
       </c>
-      <c r="L12" s="109">
+      <c r="L12" s="84">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
-      <c r="M12" s="109">
+      <c r="M12" s="84">
         <f t="shared" si="0"/>
         <v>44167</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="84">
         <f t="shared" si="0"/>
         <v>44168</v>
       </c>
-      <c r="O12" s="109">
+      <c r="O12" s="84">
         <f t="shared" si="0"/>
         <v>44169</v>
       </c>
-      <c r="P12" s="109">
+      <c r="P12" s="84">
         <f t="shared" si="0"/>
         <v>44170</v>
       </c>
-      <c r="Q12" s="109">
+      <c r="Q12" s="84">
         <f t="shared" si="0"/>
         <v>44171</v>
       </c>
-      <c r="R12" s="109">
+      <c r="R12" s="84">
         <f t="shared" si="0"/>
         <v>44172</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="66"/>
-    </row>
-    <row r="14" spans="1:18" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
-    </row>
-    <row r="15" spans="1:18" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="110"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82"/>
-    </row>
-    <row r="16" spans="1:18" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82"/>
-    </row>
-    <row r="17" spans="1:18" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="110"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-    </row>
-    <row r="18" spans="1:18" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="110"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-    </row>
-    <row r="19" spans="1:18" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="82"/>
+    <row r="13" spans="1:18" s="85" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="116">
+        <v>1</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="118">
+        <v>2</v>
+      </c>
+      <c r="D13" s="119">
+        <v>4</v>
+      </c>
+      <c r="E13" s="59">
+        <v>2</v>
+      </c>
+      <c r="F13" s="59">
+        <v>2</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:18" s="85" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="116">
+        <v>2</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="118">
+        <v>2</v>
+      </c>
+      <c r="D14" s="119">
+        <v>6</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63">
+        <v>3</v>
+      </c>
+      <c r="H14" s="63">
+        <v>3</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="1:18" s="85" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="116">
+        <v>3</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="118">
+        <v>2</v>
+      </c>
+      <c r="D15" s="119">
+        <v>4</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63">
+        <v>2</v>
+      </c>
+      <c r="J15" s="63">
+        <v>2</v>
+      </c>
+      <c r="K15" s="64"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="1:18" s="85" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="116">
+        <v>4</v>
+      </c>
+      <c r="B16" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="118">
+        <v>2</v>
+      </c>
+      <c r="D16" s="119">
+        <v>3</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64">
+        <v>2</v>
+      </c>
+      <c r="L16" s="62">
+        <v>1</v>
+      </c>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="1:18" s="85" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="116">
+        <v>5</v>
+      </c>
+      <c r="B17" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="118">
+        <v>2</v>
+      </c>
+      <c r="D17" s="119">
+        <v>3</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="62">
+        <v>1</v>
+      </c>
+      <c r="M17" s="63">
+        <v>2</v>
+      </c>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
+    </row>
+    <row r="18" spans="1:18" s="85" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="116">
+        <v>6</v>
+      </c>
+      <c r="B18" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="118">
+        <v>2</v>
+      </c>
+      <c r="D18" s="119">
+        <v>3</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63">
+        <v>2</v>
+      </c>
+      <c r="O18" s="63">
+        <v>2</v>
+      </c>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="64"/>
+    </row>
+    <row r="19" spans="1:18" s="85" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="116">
+        <v>7</v>
+      </c>
+      <c r="B19" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="118">
+        <v>3</v>
+      </c>
+      <c r="D19" s="119">
+        <v>3</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="63">
+        <v>1</v>
+      </c>
+      <c r="R19" s="64">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="84">
-        <f>SUM('1st Sprint'!$D$14:$D$19)+SUM('2nd Sprint'!$D$14:$D$19)+SUM('3rd Sprint'!$D$14:$D$18)</f>
-        <v>57</v>
-      </c>
-      <c r="C20" s="85" t="s">
+      <c r="B20" s="122">
+        <f>SUM('1st Sprint'!$D$13:$D$18)+SUM('2nd Sprint'!$D$13:$D$19)+SUM('3rd Sprint'!$D$13:$D$18)</f>
+        <v>85</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="86">
-        <f>SUM($D$14:$D$19)</f>
+      <c r="D20" s="123">
+        <f>SUM($D$13:$D$19)</f>
+        <v>26</v>
+      </c>
+      <c r="E20" s="66">
+        <f>D20-SUM(E13:E19)</f>
+        <v>24</v>
+      </c>
+      <c r="F20" s="66">
+        <f>E20-SUM(F13:F19)</f>
+        <v>22</v>
+      </c>
+      <c r="G20" s="66">
+        <f>F20-SUM(G13:G19)</f>
+        <v>19</v>
+      </c>
+      <c r="H20" s="66">
+        <f>G20-SUM(H13:H19)</f>
+        <v>16</v>
+      </c>
+      <c r="I20" s="66">
+        <f>H20-SUM(I13:I19)</f>
+        <v>14</v>
+      </c>
+      <c r="J20" s="66">
+        <f>I20-SUM(J13:J19)</f>
+        <v>12</v>
+      </c>
+      <c r="K20" s="67">
+        <f>J20-SUM(K13:K19)</f>
+        <v>10</v>
+      </c>
+      <c r="L20" s="65">
+        <f>K20-SUM(L13:L19)</f>
+        <v>8</v>
+      </c>
+      <c r="M20" s="66">
+        <f>L20-SUM(M13:M19)</f>
+        <v>6</v>
+      </c>
+      <c r="N20" s="66">
+        <f>M20-SUM(N13:N19)</f>
+        <v>4</v>
+      </c>
+      <c r="O20" s="66">
+        <f>N20-SUM(O13:O19)</f>
+        <v>2</v>
+      </c>
+      <c r="P20" s="66">
+        <f>O20-SUM(P13:P19)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="66">
+        <f>P20-SUM(Q13:Q19)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="87">
-        <f t="shared" ref="E20:R20" si="1">D20-SUM(E14:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="R20" s="67">
+        <f>Q20-SUM(R13:R19)</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:K13"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A4:B4"/>
@@ -3645,13 +3613,8 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E14:K19">
+  <conditionalFormatting sqref="E13:K19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3661,7 +3624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:R19">
+  <conditionalFormatting sqref="L13:R19">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3672,7 +3635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:R20">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>E20&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3690,626 +3653,595 @@
   <sheetPr>
     <tabColor rgb="FFF60000"/>
   </sheetPr>
-  <dimension ref="A1:AMJ21"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="118" customWidth="1"/>
-    <col min="2" max="2" width="47" style="119" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="120" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="121" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" style="121"/>
-    <col min="12" max="1024" width="11.42578125" style="118"/>
+    <col min="1" max="1" width="12.5703125" style="86" customWidth="1"/>
+    <col min="2" max="2" width="47" style="87" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="89" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" style="89"/>
+    <col min="12" max="1024" width="11.42578125" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="98"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="139" t="str">
+      <c r="A2" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111" t="str">
         <f>' Product Backlog'!C4</f>
         <v>musiCity</v>
       </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141" t="str">
+      <c r="B3" s="112"/>
+      <c r="C3" s="113" t="str">
         <f>'1st Sprint'!C3:K3</f>
         <v>Ιγνάτιος Δεληγιάννης,Στέφανος Ουγιάρογλου, Μιχαήλ Σαλαμπάσης,Αντώνης Σιδηρόπουλος</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="144" t="str">
+      <c r="B4" s="104"/>
+      <c r="C4" s="107" t="str">
         <f>'1st Sprint'!C4:K4</f>
         <v>Κόκκινου Ξανθή</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="145" t="str">
+      <c r="B5" s="101"/>
+      <c r="C5" s="108" t="str">
         <f>'Scrum team - Ρόλοι'!C7:F7</f>
         <v>Ηλιάδης Αλέξιος,Κόκκινου Ξανθή,Μήσιος Δημήτριος,Ταουκτσής Βασίλης</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="98"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="39">
+      <c r="C7" s="74"/>
+      <c r="D7" s="37">
         <v>3</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="34"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="42">
+      <c r="C8" s="77"/>
+      <c r="D8" s="40">
         <f>'2nd Sprint'!R12+1</f>
         <v>44173</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="146" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="146" t="s">
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="103"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="78"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="143" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="48">
+      <c r="C11" s="106"/>
+      <c r="D11" s="46">
         <v>0</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="79">
         <v>1</v>
       </c>
-      <c r="F11" s="105">
-        <v>2</v>
-      </c>
-      <c r="G11" s="105">
+      <c r="F11" s="80">
+        <v>2</v>
+      </c>
+      <c r="G11" s="80">
         <v>3</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="80">
         <v>4</v>
       </c>
-      <c r="I11" s="105">
+      <c r="I11" s="80">
         <v>5</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="80">
         <v>6</v>
       </c>
-      <c r="K11" s="106">
+      <c r="K11" s="81">
         <v>7</v>
       </c>
-      <c r="L11" s="104">
+      <c r="L11" s="79">
         <v>1</v>
       </c>
-      <c r="M11" s="105">
-        <v>2</v>
-      </c>
-      <c r="N11" s="105">
+      <c r="M11" s="80">
+        <v>2</v>
+      </c>
+      <c r="N11" s="80">
         <v>3</v>
       </c>
-      <c r="O11" s="105">
+      <c r="O11" s="80">
         <v>4</v>
       </c>
-      <c r="P11" s="105">
+      <c r="P11" s="80">
         <v>5</v>
       </c>
-      <c r="Q11" s="105">
+      <c r="Q11" s="80">
         <v>6</v>
       </c>
-      <c r="R11" s="106">
+      <c r="R11" s="81">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="122" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+    <row r="12" spans="1:18" s="90" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="82">
         <f>D8</f>
         <v>44173</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="83">
         <f t="shared" ref="F12:R12" si="0">E12+1</f>
         <v>44174</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="83">
         <f t="shared" si="0"/>
         <v>44175</v>
       </c>
-      <c r="H12" s="108">
+      <c r="H12" s="83">
         <f t="shared" si="0"/>
         <v>44176</v>
       </c>
-      <c r="I12" s="108">
+      <c r="I12" s="83">
         <f t="shared" si="0"/>
         <v>44177</v>
       </c>
-      <c r="J12" s="108">
+      <c r="J12" s="83">
         <f t="shared" si="0"/>
         <v>44178</v>
       </c>
-      <c r="K12" s="109">
+      <c r="K12" s="84">
         <f t="shared" si="0"/>
         <v>44179</v>
       </c>
-      <c r="L12" s="109">
+      <c r="L12" s="84">
         <f t="shared" si="0"/>
         <v>44180</v>
       </c>
-      <c r="M12" s="109">
+      <c r="M12" s="84">
         <f t="shared" si="0"/>
         <v>44181</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="84">
         <f t="shared" si="0"/>
         <v>44182</v>
       </c>
-      <c r="O12" s="109">
+      <c r="O12" s="84">
         <f t="shared" si="0"/>
         <v>44183</v>
       </c>
-      <c r="P12" s="109">
+      <c r="P12" s="84">
         <f t="shared" si="0"/>
         <v>44184</v>
       </c>
-      <c r="Q12" s="109">
+      <c r="Q12" s="84">
         <f t="shared" si="0"/>
         <v>44185</v>
       </c>
-      <c r="R12" s="109">
+      <c r="R12" s="84">
         <f t="shared" si="0"/>
         <v>44186</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="122" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="66"/>
-    </row>
-    <row r="14" spans="1:18" s="123" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110">
+    <row r="13" spans="1:18" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="116">
         <v>1</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B13" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="118">
+        <v>2</v>
+      </c>
+      <c r="D13" s="119">
+        <v>3</v>
+      </c>
+      <c r="E13" s="63">
+        <v>2</v>
+      </c>
+      <c r="F13" s="63">
+        <v>2</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="64"/>
+    </row>
+    <row r="14" spans="1:18" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="116">
+        <v>2</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="118">
+        <v>2</v>
+      </c>
+      <c r="D14" s="119">
+        <v>3</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63">
+        <v>2</v>
+      </c>
+      <c r="H14" s="63">
+        <v>1</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="1:18" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="116">
+        <v>3</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="118">
+        <v>4</v>
+      </c>
+      <c r="D15" s="119">
+        <v>6</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63">
+        <v>2</v>
+      </c>
+      <c r="J15" s="63">
+        <v>2</v>
+      </c>
+      <c r="K15" s="64">
+        <v>2</v>
+      </c>
+      <c r="L15" s="62">
+        <v>2</v>
+      </c>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="1:18" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="116">
+        <v>4</v>
+      </c>
+      <c r="B16" s="117" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="118">
+        <v>2</v>
+      </c>
+      <c r="D16" s="119">
+        <v>3</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63">
+        <v>2</v>
+      </c>
+      <c r="N16" s="63">
+        <v>2</v>
+      </c>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64"/>
+    </row>
+    <row r="17" spans="1:18" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="116">
+        <v>5</v>
+      </c>
+      <c r="B17" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="118">
+        <v>2</v>
+      </c>
+      <c r="D17" s="119">
+        <v>3</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63">
+        <v>2</v>
+      </c>
+      <c r="P17" s="63">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
+    </row>
+    <row r="18" spans="1:18" s="91" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="116">
+        <v>6</v>
+      </c>
+      <c r="B18" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
-    </row>
-    <row r="15" spans="1:18" s="123" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="110">
-        <v>2</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82"/>
-    </row>
-    <row r="16" spans="1:18" s="123" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110">
+      <c r="C18" s="118">
         <v>3</v>
       </c>
-      <c r="B16" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82"/>
-    </row>
-    <row r="17" spans="1:18" s="123" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="110">
-        <v>4</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
-    </row>
-    <row r="18" spans="1:18" s="123" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124">
+      <c r="D18" s="119">
+        <v>8</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="63">
+        <v>3</v>
+      </c>
+      <c r="R18" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="122">
+        <f>SUM('1st Sprint'!$D$13:$D$18)+SUM('2nd Sprint'!$D$13:$D$19)+SUM('3rd Sprint'!$D$13:$D$18)</f>
+        <v>85</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="123">
+        <f>SUM($D$13:$D$18)</f>
+        <v>26</v>
+      </c>
+      <c r="E19" s="66">
+        <f>D19-SUM(E13:E18)</f>
+        <v>24</v>
+      </c>
+      <c r="F19" s="66">
+        <f>E19-SUM(F13:F18)</f>
+        <v>22</v>
+      </c>
+      <c r="G19" s="66">
+        <f>F19-SUM(G13:G18)</f>
+        <v>20</v>
+      </c>
+      <c r="H19" s="66">
+        <f>G19-SUM(H13:H18)</f>
+        <v>19</v>
+      </c>
+      <c r="I19" s="66">
+        <f>H19-SUM(I13:I18)</f>
+        <v>17</v>
+      </c>
+      <c r="J19" s="66">
+        <f>I19-SUM(J13:J18)</f>
+        <v>15</v>
+      </c>
+      <c r="K19" s="67">
+        <f>J19-SUM(K13:K18)</f>
+        <v>13</v>
+      </c>
+      <c r="L19" s="65">
+        <f>K19-SUM(L13:L18)</f>
+        <v>11</v>
+      </c>
+      <c r="M19" s="66">
+        <f>L19-SUM(M13:M18)</f>
+        <v>9</v>
+      </c>
+      <c r="N19" s="66">
+        <f>M19-SUM(N13:N18)</f>
+        <v>7</v>
+      </c>
+      <c r="O19" s="66">
+        <f>N19-SUM(O13:O18)</f>
         <v>5</v>
       </c>
-      <c r="B18" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="84">
-        <f>SUM('1st Sprint'!$D$14:$D$19)+SUM('2nd Sprint'!$D$14:$D$19)+SUM('3rd Sprint'!$D$14:$D$18)</f>
-        <v>57</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="86">
-        <f>SUM($D$14:$D$18)</f>
+      <c r="P19" s="66">
+        <f>O19-SUM(P13:P18)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="87">
-        <f t="shared" ref="E19:R19" si="1">D19-SUM(E14:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="90"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="92">
-        <f>SUM($D$14:$D$18)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="115">
-        <f>D20-(D20/COUNT(E11:$K$11))</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="116">
-        <f>E20-(E20/COUNT(F11:$K$11))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="116">
-        <f>F20-(F20/COUNT(G11:$K$11))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="116">
-        <f>G20-(G20/COUNT(H11:$K$11))</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="116">
-        <f>H20-(H20/COUNT(I11:$K$11))</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="116">
-        <f>I20-(I20/COUNT(J11:$K$11))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="117">
-        <f>J20-(J20/COUNT(K11:$K$11))</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="115">
-        <f>K20-(K20/COUNT($K11:L$11))</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="116">
-        <f>L20-(L20/COUNT($K11:M$11))</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="116">
-        <f>M20-(M20/COUNT($K11:N$11))</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="116">
-        <f>N20-(N20/COUNT($K11:O$11))</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="116">
-        <f>O20-(O20/COUNT($K11:P$11))</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="116">
-        <f>P20-(P20/COUNT($K11:Q$11))</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="117">
-        <f>Q20-(Q20/COUNT($K11:R$11))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="C21" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="94">
-        <f t="shared" ref="D21:K21" si="2">D19-D20</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="Q19" s="66">
+        <f>P19-SUM(Q13:Q18)</f>
+        <v>-3</v>
+      </c>
+      <c r="R19" s="67">
+        <f>Q19-SUM(R13:R18)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:K13"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
     <mergeCell ref="L10:P10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A4:B4"/>
@@ -4317,24 +4249,14 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E19:K19">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>E19&gt;E20</formula>
+  <conditionalFormatting sqref="E19:R19">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>E19&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:K19">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>E19&gt;E20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:K18">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="E13:K18">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4343,58 +4265,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:K14">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFE2F0D9"/>
-        <color rgb="FF548235"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:K18">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFE2F0D9"/>
-        <color rgb="FF548235"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:R19">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>L19&gt;L20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:R19">
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>L19&gt;L20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:R18">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFE2F0D9"/>
-        <color rgb="FF548235"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:R14">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFE2F0D9"/>
-        <color rgb="FF548235"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:R18">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="L13:R18">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
